--- a/SalesCustomerData.xlsx
+++ b/SalesCustomerData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oddocie-my.sharepoint.com/personal/amal_nouioui_oddo-bhf_com/Documents/Bureau/Onboarding/PowerBI/Power-BI-main/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oddocie-my.sharepoint.com/personal/amal_nouioui_oddo-bhf_com/Documents/Bureau/Onboarding/PowerBI/Donnée/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{8C0CB197-A8D5-46E7-A707-4F0717230A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D4D8B0A-B162-499E-A27C-C1DD6B1EA066}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="8_{8C0CB197-A8D5-46E7-A707-4F0717230A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C58561C-872A-4AF3-B7F9-B99A8FFF622D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{41A734D2-72BA-4562-B34B-238B193B17BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Product" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="69">
   <si>
     <t>Price</t>
   </si>
@@ -66,15 +66,9 @@
     <t>Production Cost</t>
   </si>
   <si>
-    <t xml:space="preserve">Stainless Steel Axe </t>
-  </si>
-  <si>
     <t>Backpack</t>
   </si>
   <si>
-    <t>Multitool Survivial Knife</t>
-  </si>
-  <si>
     <t>Solar Battery Flashlight</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Nylon Rope</t>
   </si>
   <si>
-    <t>Waterproof Matches</t>
-  </si>
-  <si>
     <t>Water Purifier</t>
   </si>
   <si>
@@ -234,7 +225,28 @@
     <t>Camping Plate</t>
   </si>
   <si>
+    <t xml:space="preserve">Amal </t>
+  </si>
+  <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Smart watch</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Dress</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
@@ -601,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22782D8F-EDC8-4AF7-925D-084A073C841E}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,15 +638,15 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>30.99</v>
@@ -648,16 +660,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>10002</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>7.99</v>
-      </c>
-      <c r="D3">
-        <v>2.89</v>
+        <v>30.99</v>
       </c>
       <c r="E3">
         <v>969</v>
@@ -665,10 +674,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>10003</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>45.5</v>
@@ -682,16 +691,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>10004</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>39.99</v>
       </c>
       <c r="D5">
-        <v>26.92</v>
+        <v>30.99</v>
       </c>
       <c r="E5">
         <v>2770.84</v>
@@ -699,27 +708,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>10005</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>28.99</v>
       </c>
       <c r="D6">
-        <v>10.58</v>
+        <v>4.87</v>
       </c>
       <c r="E6">
-        <v>8781.57</v>
+        <v>596.82000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>10006</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>26.49</v>
@@ -733,13 +742,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>10007</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>79.989999999999995</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
       <c r="D8">
         <v>30.59</v>
@@ -750,10 +759,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>10008</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>6.25</v>
@@ -767,10 +776,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>10009</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>30.25</v>
@@ -784,13 +793,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10010</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>2.75</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
       </c>
       <c r="D11">
         <v>1.01</v>
@@ -801,27 +810,24 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>10011</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>14.3</v>
       </c>
-      <c r="D12">
-        <v>1.01</v>
-      </c>
       <c r="E12">
         <v>999.99900000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>10012</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>16.8</v>
@@ -835,7 +841,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>10013</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -846,16 +852,16 @@
       <c r="D14">
         <v>4.87</v>
       </c>
-      <c r="E14">
-        <v>503.7</v>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>10014</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>30.25</v>
@@ -869,10 +875,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>10015</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>2.75</v>
@@ -886,10 +892,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>10016</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17">
         <v>14.3</v>
@@ -903,13 +909,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>10017</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>16.8</v>
+        <v>26.49</v>
       </c>
       <c r="D18">
         <v>1.01</v>
@@ -920,13 +926,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>10018</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19">
-        <v>5.99</v>
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
       </c>
       <c r="D19">
         <v>1.99</v>
@@ -937,10 +943,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10019</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20">
         <v>49.99</v>
@@ -954,10 +960,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>10020</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>24.99</v>
@@ -971,10 +977,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>10021</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>19.989999999999998</v>
@@ -988,10 +994,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>10022</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C23">
         <v>8.49</v>
@@ -1005,10 +1011,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>10023</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>89.99</v>
@@ -1022,10 +1028,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>10024</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>59.99</v>
@@ -1039,10 +1045,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>10025</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26">
         <v>12.99</v>
@@ -1056,10 +1062,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>10026</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>99.99</v>
@@ -1073,10 +1079,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>10027</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28">
         <v>15.99</v>
@@ -1090,10 +1096,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>10028</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29">
         <v>22.5</v>
@@ -1107,10 +1113,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>10029</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>18.75</v>
@@ -1124,10 +1130,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>10030</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>14.99</v>
@@ -1141,10 +1147,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>10031</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>9.99</v>
@@ -1158,10 +1164,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>10032</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C33">
         <v>4.99</v>
@@ -1175,10 +1181,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>10033</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34">
         <v>3.49</v>
@@ -1192,10 +1198,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>10034</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>55</v>
@@ -1209,10 +1215,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>10035</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>34.99</v>
@@ -1226,10 +1232,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>10036</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>55</v>
@@ -1243,10 +1249,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>10037</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C38">
         <v>18.75</v>
@@ -1260,10 +1266,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>10038</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>19.989999999999998</v>
@@ -1277,10 +1283,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>10039</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>19.989999999999998</v>
@@ -1294,10 +1300,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>10040</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>19.989999999999998</v>
@@ -1311,10 +1317,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>10041</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>19.989999999999998</v>
@@ -1328,27 +1334,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>10042</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>19.989999999999998</v>
       </c>
-      <c r="D43">
-        <v>5.5</v>
-      </c>
       <c r="E43">
         <v>1300</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>10043</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>19.989999999999998</v>
@@ -1362,10 +1365,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>10044</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>34.99</v>
@@ -1374,15 +1377,15 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>2500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>10045</v>
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>26.49</v>
@@ -1395,28 +1398,28 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>10046</v>
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47">
         <v>26.49</v>
       </c>
-      <c r="D47">
-        <v>13.41</v>
+      <c r="D47" t="s">
+        <v>62</v>
       </c>
       <c r="E47">
         <v>2380.56</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>10047</v>
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48">
         <v>26.49</v>
@@ -1429,11 +1432,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>10048</v>
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>26.49</v>
@@ -1446,11 +1449,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>10049</v>
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50">
         <v>26.49</v>
@@ -1464,10 +1467,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>10050</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C51">
         <v>18.75</v>
@@ -1480,42 +1483,17 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>10051</v>
-      </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>18.75</v>
-      </c>
-      <c r="D52">
-        <v>6</v>
-      </c>
-      <c r="E52">
-        <v>1700</v>
-      </c>
+      <c r="A52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>10052</v>
-      </c>
-      <c r="B53" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53">
-        <v>18.75</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>1700</v>
-      </c>
+      <c r="A53"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54"/>
     </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55"/>
+    </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56"/>
     </row>
@@ -1524,9 +1502,6 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60"/>
@@ -1666,12 +1641,12 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="13.109375" customWidth="1"/>
@@ -1679,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -1694,19 +1669,18 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>_xlfn.XLOOKUP(B2,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1043</v>
@@ -1720,38 +1694,36 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>_xlfn.XLOOKUP(B3,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>98123</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>10002</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>5779</v>
+        <v>1044</v>
       </c>
       <c r="E3">
         <v>32</v>
       </c>
       <c r="F3" s="1">
-        <v>44597</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>_xlfn.XLOOKUP(B4,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>2468</v>
+        <v>456321</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>10003</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="E4">
         <v>59</v>
@@ -1762,20 +1734,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>_xlfn.XLOOKUP(B5,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>987123</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>10004</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4859</v>
+        <v>1046</v>
       </c>
       <c r="E5">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
         <v>44625</v>
@@ -1783,17 +1754,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>_xlfn.XLOOKUP(B6,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>9876</v>
+        <v>93651</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>10005</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>3966</v>
+        <v>1047</v>
       </c>
       <c r="E6">
         <v>68</v>
@@ -1804,17 +1774,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>_xlfn.XLOOKUP(B7,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>246876</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>10006</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>4033</v>
+        <v>1048</v>
       </c>
       <c r="E7">
         <v>51</v>
@@ -1825,17 +1794,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>_xlfn.XLOOKUP(B8,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>237463</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>10007</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>4133</v>
+        <v>1049</v>
       </c>
       <c r="E8">
         <v>46</v>
@@ -1846,17 +1814,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>_xlfn.XLOOKUP(B9,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1357</v>
+        <v>19876</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>10008</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1753</v>
+        <v>1050</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -1867,17 +1834,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>_xlfn.XLOOKUP(B10,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>244168</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>10009</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>4952</v>
+        <v>1051</v>
       </c>
       <c r="E10">
         <v>37</v>
@@ -1888,38 +1854,36 @@
     </row>
     <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>_xlfn.XLOOKUP(B11,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>11357</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>10010</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>2045</v>
+        <v>1052</v>
       </c>
       <c r="E11">
         <v>70</v>
       </c>
-      <c r="F11" s="1">
-        <v>44566</v>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>_xlfn.XLOOKUP(B12,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>908876</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>10004</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>4859</v>
+        <v>1053</v>
       </c>
       <c r="E12">
         <v>55</v>
@@ -1931,16 +1895,16 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>_xlfn.XLOOKUP(B13,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>9876</v>
+        <v>123789</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>10005</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>3966</v>
+        <v>1054</v>
       </c>
       <c r="E13">
         <v>68</v>
@@ -1951,17 +1915,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>_xlfn.XLOOKUP(B14,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>195357</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>10006</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>4033</v>
+        <v>1055</v>
       </c>
       <c r="E14">
         <v>51</v>
@@ -1973,16 +1936,16 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>_xlfn.XLOOKUP(B15,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>10007</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>4133</v>
+        <v>1056</v>
       </c>
       <c r="E15">
         <v>46</v>
@@ -1992,66 +1955,64 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="e">
-        <f>_xlfn.XLOOKUP(B16,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>#N/A</v>
+      <c r="A16">
+        <v>909876</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>10008</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1753</v>
+        <v>1057</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1">
-        <v>44590</v>
+        <v>44563</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="e">
-        <f>_xlfn.XLOOKUP(B17,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>#N/A</v>
+      <c r="A17">
+        <v>212468</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>10009</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>4952</v>
+        <v>1057</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
-        <v>44632</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="e">
+      <c r="A18">
         <f>_xlfn.XLOOKUP(B18,'Customer '!B:B,'Customer '!A:A)</f>
-        <v>#N/A</v>
+        <v>123456</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>10010</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>2045</v>
+        <v>1058</v>
       </c>
       <c r="E18">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F18" s="1">
-        <v>44566</v>
+        <v>44592</v>
       </c>
     </row>
   </sheetData>
@@ -2066,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF10526D-2B8A-4364-A7CF-58A5865D7E38}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,39 +2045,39 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1234</v>
+        <v>123456</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>70571</v>
@@ -2124,19 +2085,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>9876</v>
+        <v>123789</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>12546</v>
@@ -2144,39 +2105,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2468</v>
+        <v>98123</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>93873</v>
+        <v>12546</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1357</v>
+        <v>456321</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>34979</v>
@@ -2184,19 +2145,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1234</v>
+        <v>987123</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>70571</v>
@@ -2204,19 +2165,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>9876</v>
+        <v>93651</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>12546</v>
@@ -2224,19 +2185,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2468</v>
+        <v>246876</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>93873</v>
@@ -2244,19 +2205,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1357</v>
+        <v>123864</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F9">
         <v>34979</v>
@@ -2264,19 +2225,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>1234</v>
+        <v>237463</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>70571</v>
@@ -2284,19 +2245,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9876</v>
+        <v>19876</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>12546</v>
@@ -2304,19 +2265,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2468</v>
+        <v>244168</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>93873</v>
@@ -2324,21 +2285,141 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>11357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13">
+        <v>34979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>908876</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>12546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>213468</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>93873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>195357</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>34979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>909876</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>12546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>212468</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>93873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>1357</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
         <v>34979</v>
       </c>
     </row>
